--- a/data_output/prism_passive/all_passive_force at subject max force.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max force.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1006.8410676762168</v>
+        <v>1006.8410571318944</v>
       </c>
       <c r="C2">
-        <v>784.68221713555477</v>
+        <v>784.68220717664246</v>
       </c>
       <c r="D2">
-        <v>1103.9066269064899</v>
+        <v>1103.9066158825201</v>
       </c>
       <c r="E2">
-        <v>1405.9551126350516</v>
+        <v>1405.955078760413</v>
       </c>
       <c r="F2">
-        <v>719.69678399746556</v>
+        <v>719.69677792151379</v>
       </c>
       <c r="G2">
-        <v>774.091548149593</v>
+        <v>774.09154310567544</v>
       </c>
       <c r="H2">
-        <v>1060.8049703138424</v>
+        <v>1060.8049592384793</v>
       </c>
       <c r="I2">
-        <v>782.3268219189373</v>
+        <v>782.32681750269296</v>
       </c>
       <c r="J2">
-        <v>1130.9869802580927</v>
+        <v>1130.9869692622849</v>
       </c>
       <c r="K2">
-        <v>1087.8628705064932</v>
+        <v>1087.8628590510082</v>
       </c>
       <c r="L2">
-        <v>812.85936731041056</v>
+        <v>812.8593573313043</v>
       </c>
       <c r="M2">
-        <v>729.1864426670918</v>
+        <v>729.18643933657677</v>
       </c>
       <c r="N2">
-        <v>826.86839287623525</v>
+        <v>826.86838530406374</v>
       </c>
       <c r="O2">
-        <v>461.50722727523902</v>
+        <v>461.50722525496786</v>
       </c>
       <c r="P2">
-        <v>946.63924628826442</v>
+        <v>946.63923647977197</v>
       </c>
       <c r="Q2">
-        <v>500.3040003887192</v>
+        <v>500.30399805716735</v>
       </c>
       <c r="R2">
-        <v>813.75693769858901</v>
+        <v>813.75693527432168</v>
       </c>
       <c r="S2">
-        <v>1326.7332690296005</v>
+        <v>1326.7332603242437</v>
       </c>
       <c r="T2">
-        <v>707.12147198043078</v>
+        <v>707.12147066572982</v>
       </c>
       <c r="U2">
-        <v>536.64590326082816</v>
+        <v>536.64589914810222</v>
       </c>
       <c r="V2">
-        <v>1089.7204951872588</v>
+        <v>1089.7204878862815</v>
       </c>
       <c r="W2">
-        <v>967.72087494136485</v>
+        <v>967.72086660413754</v>
       </c>
       <c r="X2">
-        <v>763.76377689060121</v>
+        <v>763.76376573095297</v>
       </c>
       <c r="Y2">
-        <v>675.87984635763269</v>
+        <v>675.87984356188997</v>
       </c>
       <c r="Z2">
-        <v>273.31936521038307</v>
+        <v>273.31936476055881</v>
       </c>
       <c r="AA2">
-        <v>1658.9956138070947</v>
+        <v>1658.9955863539981</v>
       </c>
       <c r="AB2">
-        <v>832.08217165400276</v>
+        <v>832.08215664539841</v>
       </c>
       <c r="AC2">
-        <v>898.8952163523918</v>
+        <v>898.89520833236213</v>
       </c>
       <c r="AD2">
-        <v>1005.3080529618902</v>
+        <v>1005.3080222500139</v>
       </c>
       <c r="AE2">
-        <v>936.19748173051858</v>
+        <v>936.19746778633305</v>
       </c>
       <c r="AF2">
-        <v>838.91208182196033</v>
+        <v>838.91207537448088</v>
       </c>
       <c r="AG2">
-        <v>1101.6113265484894</v>
+        <v>1101.6113090851275</v>
       </c>
       <c r="AH2">
-        <v>643.88711090781464</v>
+        <v>643.88710714464037</v>
       </c>
       <c r="AI2">
-        <v>1046.5595798839925</v>
+        <v>1046.5595697328797</v>
       </c>
       <c r="AJ2">
-        <v>1537.9101646697975</v>
+        <v>1537.9101500008903</v>
       </c>
       <c r="AK2">
-        <v>807.09777373235102</v>
+        <v>807.09776052822224</v>
       </c>
       <c r="AL2">
-        <v>921.14517117396565</v>
+        <v>921.14516434745383</v>
       </c>
       <c r="AM2">
-        <v>975.62009144007641</v>
+        <v>975.62008339101214</v>
       </c>
       <c r="AN2">
-        <v>417.24887649741385</v>
+        <v>417.24887536970186</v>
       </c>
       <c r="AO2">
-        <v>851.11674891164694</v>
+        <v>851.11674215641995</v>
       </c>
       <c r="AP2">
-        <v>467.42347240090385</v>
+        <v>467.42347096340819</v>
       </c>
       <c r="AQ2">
-        <v>736.47082510645669</v>
+        <v>736.47082127557076</v>
       </c>
       <c r="AR2">
-        <v>915.04243640297602</v>
+        <v>915.04242871146346</v>
       </c>
       <c r="AS2">
-        <v>1332.349838330452</v>
+        <v>1332.3498253461005</v>
       </c>
       <c r="AT2">
-        <v>350.48076051474112</v>
+        <v>350.48075933383103</v>
       </c>
       <c r="AU2">
-        <v>1043.8642184216058</v>
+        <v>1043.8642131179631</v>
       </c>
       <c r="AV2">
-        <v>992.86195296394544</v>
+        <v>992.86193445444144</v>
       </c>
       <c r="AW2">
-        <v>438.15613485493986</v>
+        <v>438.15613073570489</v>
       </c>
       <c r="AX2">
-        <v>854.45842571533592</v>
+        <v>854.45841634437727</v>
       </c>
       <c r="AY2">
-        <v>453.74051708991692</v>
+        <v>453.74051347848621</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1256.6242850946503</v>
+        <v>1256.6242649662242</v>
       </c>
       <c r="C3">
-        <v>899.75103386024921</v>
+        <v>899.75102031170354</v>
       </c>
       <c r="D3">
-        <v>528.38985073785295</v>
+        <v>528.38984743350204</v>
       </c>
       <c r="E3">
-        <v>1496.1471187305449</v>
+        <v>1496.1471085605228</v>
       </c>
       <c r="F3">
-        <v>456.285361020219</v>
+        <v>456.28535676028179</v>
       </c>
       <c r="G3">
-        <v>1050.9346980209978</v>
+        <v>1050.9346900764967</v>
       </c>
       <c r="H3">
-        <v>1072.7813803979839</v>
+        <v>1072.7813701737575</v>
       </c>
       <c r="I3">
-        <v>589.6497493339499</v>
+        <v>589.64974802873496</v>
       </c>
       <c r="J3">
-        <v>1006.9601052355647</v>
+        <v>1006.9600945011888</v>
       </c>
       <c r="K3">
-        <v>829.63542796963793</v>
+        <v>829.63542407173816</v>
       </c>
       <c r="L3">
-        <v>759.26891762922571</v>
+        <v>759.26891209674284</v>
       </c>
       <c r="M3">
-        <v>1036.1754179654108</v>
+        <v>1036.2362742366404</v>
       </c>
       <c r="N3">
-        <v>770.17302558382835</v>
+        <v>770.17302114195684</v>
       </c>
       <c r="O3">
-        <v>444.87391105662761</v>
+        <v>444.87390981478114</v>
       </c>
       <c r="P3">
-        <v>1273.6451268954422</v>
+        <v>1273.6451136165972</v>
       </c>
       <c r="Q3">
-        <v>585.28164379181419</v>
+        <v>585.28164100408901</v>
       </c>
       <c r="R3">
-        <v>689.23855025923604</v>
+        <v>689.23854332370718</v>
       </c>
       <c r="S3">
-        <v>795.74921583659318</v>
+        <v>795.74921194859792</v>
       </c>
       <c r="T3">
-        <v>738.77010299940105</v>
+        <v>738.77010083756795</v>
       </c>
       <c r="U3">
-        <v>545.17480982584766</v>
+        <v>545.17480799150974</v>
       </c>
       <c r="V3">
-        <v>756.4346694811212</v>
+        <v>756.4346663678815</v>
       </c>
       <c r="W3">
-        <v>540.7718363627464</v>
+        <v>540.77183258068828</v>
       </c>
       <c r="X3">
-        <v>517.10275689612502</v>
+        <v>517.10275304978802</v>
       </c>
       <c r="Y3">
-        <v>584.78716959042004</v>
+        <v>584.78716744921235</v>
       </c>
       <c r="Z3">
-        <v>346.35109702680694</v>
+        <v>346.35109640909099</v>
       </c>
       <c r="AA3">
-        <v>1426.1192511342895</v>
+        <v>1426.1192256814875</v>
       </c>
       <c r="AB3">
-        <v>1108.1039680961651</v>
+        <v>1108.1039482958377</v>
       </c>
       <c r="AC3">
-        <v>833.26334439337313</v>
+        <v>833.26333748433774</v>
       </c>
       <c r="AD3">
-        <v>1267.515929032468</v>
+        <v>1267.5159121168247</v>
       </c>
       <c r="AE3">
-        <v>787.10236485966232</v>
+        <v>787.10235664812683</v>
       </c>
       <c r="AF3">
-        <v>1106.5721686571144</v>
+        <v>1106.5721570523556</v>
       </c>
       <c r="AG3">
-        <v>1311.5007601466584</v>
+        <v>1311.5007393183298</v>
       </c>
       <c r="AH3">
-        <v>1100.9229451422473</v>
+        <v>1100.9229237944216</v>
       </c>
       <c r="AI3">
-        <v>1133.9687359503869</v>
+        <v>1133.9687184282836</v>
       </c>
       <c r="AJ3">
-        <v>1626.883389688217</v>
+        <v>1626.8833799209217</v>
       </c>
       <c r="AK3">
-        <v>1179.9377941935156</v>
+        <v>1179.9377767985843</v>
       </c>
       <c r="AL3">
-        <v>974.68436770478218</v>
+        <v>974.68435776130025</v>
       </c>
       <c r="AM3">
-        <v>1377.297722886696</v>
+        <v>1377.2977032292674</v>
       </c>
       <c r="AN3">
-        <v>641.67416989605465</v>
+        <v>641.6741646289305</v>
       </c>
       <c r="AO3">
-        <v>1653.9833540352877</v>
+        <v>1653.9833327600761</v>
       </c>
       <c r="AP3">
-        <v>517.77112533875527</v>
+        <v>517.77112343292299</v>
       </c>
       <c r="AQ3">
-        <v>492.19931384879624</v>
+        <v>492.19931170500905</v>
       </c>
       <c r="AR3">
-        <v>689.50721370023564</v>
+        <v>689.50721109208041</v>
       </c>
       <c r="AS3">
-        <v>1130.6579010541188</v>
+        <v>1130.6578877428078</v>
       </c>
       <c r="AT3">
-        <v>398.13473951382502</v>
+        <v>398.13473788429627</v>
       </c>
       <c r="AU3">
-        <v>1443.2658104534958</v>
+        <v>1443.2657971954543</v>
       </c>
       <c r="AV3">
-        <v>892.0366397182255</v>
+        <v>892.03662647584054</v>
       </c>
       <c r="AW3">
-        <v>977.290564333936</v>
+        <v>977.29054414563234</v>
       </c>
       <c r="AX3">
-        <v>927.39974687635242</v>
+        <v>927.39974020395312</v>
       </c>
       <c r="AY3">
-        <v>634.35164670025995</v>
+        <v>634.35164239988046</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_force at subject max force.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max force.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1006.8410571318944</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>784.68220717664246</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1103.9066158825201</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1405.955078760413</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>719.69677792151379</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>774.09154310567544</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1060.8049592384793</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>782.32681750269296</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1130.9869692622849</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1087.8628590510082</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>812.8593573313043</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>729.18643933657677</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>826.86838530406374</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>461.50722525496786</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>946.63923647977197</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>500.30399805716735</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>813.75693527432168</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1326.7332603242437</v>
@@ -588,55 +477,55 @@
         <v>273.31936476055881</v>
       </c>
       <c r="AA2">
-        <v>1658.9955863539981</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>832.08215664539841</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>898.89520833236213</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1005.3080222500139</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>936.19746778633305</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>838.91207537448088</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1101.6113090851275</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>643.88710714464037</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1046.5595697328797</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1537.9101500008903</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>807.09776052822224</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>921.14516434745383</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>975.62008339101214</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>417.24887536970186</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>851.11674215641995</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>467.42347096340819</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>736.47082127557076</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>915.04242871146346</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1256.6242649662242</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>899.75102031170354</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>528.38984743350204</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1496.1471085605228</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>456.28535676028179</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1050.9346900764967</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1072.7813701737575</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>589.64974802873496</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1006.9600945011888</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>829.63542407173816</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>759.26891209674284</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1036.2362742366404</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>770.17302114195684</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>444.87390981478114</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1273.6451136165972</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>585.28164100408901</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>689.23854332370718</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>795.74921194859792</v>
@@ -743,55 +629,55 @@
         <v>346.35109640909099</v>
       </c>
       <c r="AA3">
-        <v>1426.1192256814875</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1108.1039482958377</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>833.26333748433774</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1267.5159121168247</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>787.10235664812683</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1106.5721570523556</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1311.5007393183298</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1100.9229237944216</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1133.9687184282836</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1626.8833799209217</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1179.9377767985843</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>974.68435776130025</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1377.2977032292674</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>641.6741646289305</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1653.9833327600761</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>517.77112343292299</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>492.19931170500905</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>689.50721109208041</v>

--- a/data_output/prism_passive/all_passive_force at subject max force.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max force.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1006.8410676762168</v>
+        <v>461.50722525496786</v>
       </c>
       <c r="C2">
-        <v>784.68221713555477</v>
+        <v>813.75693527432168</v>
       </c>
       <c r="D2">
-        <v>1103.9066269064899</v>
+        <v>417.24887536970186</v>
       </c>
       <c r="E2">
-        <v>1405.9551126350516</v>
+        <v>736.47082127557076</v>
       </c>
       <c r="F2">
         <v>719.69678399746556</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1256.6242850946503</v>
+        <v>444.87390981478114</v>
       </c>
       <c r="C3">
-        <v>899.75103386024921</v>
+        <v>689.23854332370718</v>
       </c>
       <c r="D3">
-        <v>528.38985073785295</v>
+        <v>641.6741646289305</v>
       </c>
       <c r="E3">
-        <v>1496.1471187305449</v>
+        <v>476.2203269271044</v>
       </c>
       <c r="F3">
         <v>456.285361020219</v>

--- a/data_output/prism_passive/all_passive_force at subject max force.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max force.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1006.8410676762168</v>
+        <v>826.86838530406374</v>
       </c>
       <c r="C2">
-        <v>784.68221713555477</v>
+        <v>461.50722525496786</v>
       </c>
       <c r="D2">
-        <v>1103.9066269064899</v>
+        <v>975.62008339101214</v>
       </c>
       <c r="E2">
-        <v>1405.9551126350516</v>
+        <v>417.24887536970186</v>
       </c>
       <c r="F2">
         <v>719.69678399746556</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1256.6242850946503</v>
+        <v>770.17302114195684</v>
       </c>
       <c r="C3">
-        <v>899.75103386024921</v>
+        <v>444.87390981478114</v>
       </c>
       <c r="D3">
-        <v>528.38985073785295</v>
+        <v>1377.2977032292674</v>
       </c>
       <c r="E3">
-        <v>1496.1471187305449</v>
+        <v>641.6741646289305</v>
       </c>
       <c r="F3">
         <v>456.285361020219</v>

--- a/data_output/prism_passive/all_passive_force at subject max force.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max force.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1006.8410571318944</v>
+      </c>
+      <c r="C2">
+        <v>784.68220717664246</v>
+      </c>
+      <c r="D2">
+        <v>1103.9066158825201</v>
+      </c>
+      <c r="E2">
+        <v>1405.955078760413</v>
+      </c>
+      <c r="F2">
+        <v>719.69677792151379</v>
+      </c>
+      <c r="G2">
+        <v>774.09154310567544</v>
+      </c>
+      <c r="H2">
+        <v>1060.8049592384793</v>
+      </c>
+      <c r="I2">
+        <v>782.32681750269296</v>
+      </c>
+      <c r="J2">
+        <v>1130.9869692622849</v>
+      </c>
+      <c r="K2">
+        <v>1087.8628590510082</v>
+      </c>
+      <c r="L2">
+        <v>812.8593573313043</v>
+      </c>
+      <c r="M2">
+        <v>729.18643933657677</v>
+      </c>
+      <c r="N2">
         <v>826.86838530406374</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>461.50722525496786</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>946.63923647977197</v>
+      </c>
+      <c r="Q2">
+        <v>500.30399805716735</v>
+      </c>
+      <c r="R2">
+        <v>813.75693527432168</v>
+      </c>
+      <c r="S2">
+        <v>1326.7332603242437</v>
+      </c>
+      <c r="T2">
+        <v>707.12147066572982</v>
+      </c>
+      <c r="U2">
+        <v>536.64589914810222</v>
+      </c>
+      <c r="V2">
+        <v>1089.7204878862815</v>
+      </c>
+      <c r="W2">
+        <v>967.72086660413754</v>
+      </c>
+      <c r="X2">
+        <v>763.76376573095297</v>
+      </c>
+      <c r="Y2">
+        <v>675.87984356188997</v>
+      </c>
+      <c r="Z2">
+        <v>273.31936476055881</v>
+      </c>
+      <c r="AA2">
+        <v>1658.9955863539981</v>
+      </c>
+      <c r="AB2">
+        <v>832.08215664539841</v>
+      </c>
+      <c r="AC2">
+        <v>898.89520833236213</v>
+      </c>
+      <c r="AD2">
+        <v>1005.3080222500139</v>
+      </c>
+      <c r="AE2">
+        <v>936.19746778633305</v>
+      </c>
+      <c r="AF2">
+        <v>838.91207537448088</v>
+      </c>
+      <c r="AG2">
+        <v>1101.6113090851275</v>
+      </c>
+      <c r="AH2">
+        <v>643.88710714464037</v>
+      </c>
+      <c r="AI2">
+        <v>1046.5595697328797</v>
+      </c>
+      <c r="AJ2">
+        <v>1537.9101500008903</v>
+      </c>
+      <c r="AK2">
+        <v>807.09776052822224</v>
+      </c>
+      <c r="AL2">
+        <v>921.14516434745383</v>
+      </c>
+      <c r="AM2">
         <v>975.62008339101214</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>417.24887536970186</v>
       </c>
-      <c r="F2">
-        <v>719.69678399746556</v>
-      </c>
-      <c r="G2">
-        <v>774.091548149593</v>
-      </c>
-      <c r="H2">
-        <v>1060.8049703138424</v>
-      </c>
-      <c r="I2">
-        <v>782.3268219189373</v>
-      </c>
-      <c r="J2">
-        <v>1130.9869802580927</v>
-      </c>
-      <c r="K2">
-        <v>1087.8628705064932</v>
-      </c>
-      <c r="L2">
-        <v>812.85936731041056</v>
-      </c>
-      <c r="M2">
-        <v>729.1864426670918</v>
-      </c>
-      <c r="N2">
-        <v>826.86839287623525</v>
-      </c>
-      <c r="O2">
-        <v>461.50722727523902</v>
-      </c>
-      <c r="P2">
-        <v>946.63924628826442</v>
-      </c>
-      <c r="Q2">
-        <v>500.3040003887192</v>
-      </c>
-      <c r="R2">
-        <v>813.75693769858901</v>
-      </c>
-      <c r="S2">
-        <v>1326.7332690296005</v>
-      </c>
-      <c r="T2">
-        <v>707.12147198043078</v>
-      </c>
-      <c r="U2">
-        <v>536.64590326082816</v>
-      </c>
-      <c r="V2">
-        <v>1089.7204951872588</v>
-      </c>
-      <c r="W2">
-        <v>967.72087494136485</v>
-      </c>
-      <c r="X2">
-        <v>763.76377689060121</v>
-      </c>
-      <c r="Y2">
-        <v>675.87984635763269</v>
-      </c>
-      <c r="Z2">
-        <v>273.31936521038307</v>
-      </c>
-      <c r="AA2">
-        <v>1658.9956138070947</v>
-      </c>
-      <c r="AB2">
-        <v>832.08217165400276</v>
-      </c>
-      <c r="AC2">
-        <v>898.8952163523918</v>
-      </c>
-      <c r="AD2">
-        <v>1005.3080529618902</v>
-      </c>
-      <c r="AE2">
-        <v>936.19748173051858</v>
-      </c>
-      <c r="AF2">
-        <v>838.91208182196033</v>
-      </c>
-      <c r="AG2">
-        <v>1101.6113265484894</v>
-      </c>
-      <c r="AH2">
-        <v>643.88711090781464</v>
-      </c>
-      <c r="AI2">
-        <v>1046.5595798839925</v>
-      </c>
-      <c r="AJ2">
-        <v>1537.9101646697975</v>
-      </c>
-      <c r="AK2">
-        <v>807.09777373235102</v>
-      </c>
-      <c r="AL2">
-        <v>921.14517117396565</v>
-      </c>
-      <c r="AM2">
-        <v>975.62009144007641</v>
-      </c>
-      <c r="AN2">
-        <v>417.24887649741385</v>
-      </c>
       <c r="AO2">
-        <v>851.11674891164694</v>
+        <v>851.11674215641995</v>
       </c>
       <c r="AP2">
-        <v>454.03016517499162</v>
+        <v>454.03016358632271</v>
       </c>
       <c r="AQ2">
-        <v>736.47082510645669</v>
+        <v>736.47082127557076</v>
       </c>
       <c r="AR2">
-        <v>915.04243640297602</v>
+        <v>915.04242871146346</v>
       </c>
       <c r="AS2">
-        <v>1332.349838330452</v>
+        <v>1332.3498253461005</v>
       </c>
       <c r="AT2">
-        <v>350.48076051474112</v>
+        <v>350.48075933383103</v>
       </c>
       <c r="AU2">
-        <v>1043.8642184216058</v>
+        <v>1043.8642131179631</v>
       </c>
       <c r="AV2">
-        <v>992.86195296394544</v>
+        <v>992.86193445444144</v>
       </c>
       <c r="AW2">
-        <v>438.15613485493986</v>
+        <v>438.15613073570489</v>
       </c>
       <c r="AX2">
-        <v>854.45842571533592</v>
+        <v>854.45841634437727</v>
       </c>
       <c r="AY2">
-        <v>453.74051708991692</v>
+        <v>453.74051347848621</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1256.6242649662242</v>
+      </c>
+      <c r="C3">
+        <v>899.75102031170354</v>
+      </c>
+      <c r="D3">
+        <v>528.38984743350204</v>
+      </c>
+      <c r="E3">
+        <v>1496.1471085605228</v>
+      </c>
+      <c r="F3">
+        <v>456.28535676028179</v>
+      </c>
+      <c r="G3">
+        <v>1050.9346900764967</v>
+      </c>
+      <c r="H3">
+        <v>1072.7813701737575</v>
+      </c>
+      <c r="I3">
+        <v>589.64974802873496</v>
+      </c>
+      <c r="J3">
+        <v>1006.9600945011888</v>
+      </c>
+      <c r="K3">
+        <v>829.63542407173816</v>
+      </c>
+      <c r="L3">
+        <v>759.26891209674284</v>
+      </c>
+      <c r="M3">
+        <v>1036.2362742366404</v>
+      </c>
+      <c r="N3">
         <v>770.17302114195684</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>444.87390981478114</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1273.6451136165972</v>
+      </c>
+      <c r="Q3">
+        <v>585.28164100408901</v>
+      </c>
+      <c r="R3">
+        <v>689.23854332370718</v>
+      </c>
+      <c r="S3">
+        <v>795.74921194859792</v>
+      </c>
+      <c r="T3">
+        <v>738.77010083756795</v>
+      </c>
+      <c r="U3">
+        <v>545.17480799150974</v>
+      </c>
+      <c r="V3">
+        <v>756.4346663678815</v>
+      </c>
+      <c r="W3">
+        <v>542.46236964015293</v>
+      </c>
+      <c r="X3">
+        <v>517.10275304978802</v>
+      </c>
+      <c r="Y3">
+        <v>584.78716744921235</v>
+      </c>
+      <c r="Z3">
+        <v>346.35109640909099</v>
+      </c>
+      <c r="AA3">
+        <v>1426.1192256814875</v>
+      </c>
+      <c r="AB3">
+        <v>1108.1039482958377</v>
+      </c>
+      <c r="AC3">
+        <v>833.26333748433774</v>
+      </c>
+      <c r="AD3">
+        <v>1267.5159121168247</v>
+      </c>
+      <c r="AE3">
+        <v>787.10235664812683</v>
+      </c>
+      <c r="AF3">
+        <v>1106.5721570523556</v>
+      </c>
+      <c r="AG3">
+        <v>1311.5007393183298</v>
+      </c>
+      <c r="AH3">
+        <v>1069.2692597071266</v>
+      </c>
+      <c r="AI3">
+        <v>1133.9687184282836</v>
+      </c>
+      <c r="AJ3">
+        <v>1626.8833799209217</v>
+      </c>
+      <c r="AK3">
+        <v>1179.9377767985843</v>
+      </c>
+      <c r="AL3">
+        <v>974.68435776130025</v>
+      </c>
+      <c r="AM3">
         <v>1377.2977032292674</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>641.6741646289305</v>
       </c>
-      <c r="F3">
-        <v>456.285361020219</v>
-      </c>
-      <c r="G3">
-        <v>1050.9346980209978</v>
-      </c>
-      <c r="H3">
-        <v>1072.7813803979839</v>
-      </c>
-      <c r="I3">
-        <v>589.6497493339499</v>
-      </c>
-      <c r="J3">
-        <v>1006.9601052355647</v>
-      </c>
-      <c r="K3">
-        <v>829.63542796963793</v>
-      </c>
-      <c r="L3">
-        <v>759.26891762922571</v>
-      </c>
-      <c r="M3">
-        <v>1036.1754179654108</v>
-      </c>
-      <c r="N3">
-        <v>770.17302558382835</v>
-      </c>
-      <c r="O3">
-        <v>444.87391105662761</v>
-      </c>
-      <c r="P3">
-        <v>1273.6451268954422</v>
-      </c>
-      <c r="Q3">
-        <v>585.28164379181419</v>
-      </c>
-      <c r="R3">
-        <v>689.23855025923604</v>
-      </c>
-      <c r="S3">
-        <v>795.74921583659318</v>
-      </c>
-      <c r="T3">
-        <v>738.77010299940105</v>
-      </c>
-      <c r="U3">
-        <v>545.17480982584766</v>
-      </c>
-      <c r="V3">
-        <v>756.4346694811212</v>
-      </c>
-      <c r="W3">
-        <v>542.46237332559338</v>
-      </c>
-      <c r="X3">
-        <v>517.10275689612502</v>
-      </c>
-      <c r="Y3">
-        <v>584.78716959042004</v>
-      </c>
-      <c r="Z3">
-        <v>346.35109702680694</v>
-      </c>
-      <c r="AA3">
-        <v>1426.1192511342895</v>
-      </c>
-      <c r="AB3">
-        <v>1108.1039680961651</v>
-      </c>
-      <c r="AC3">
-        <v>833.26334439337313</v>
-      </c>
-      <c r="AD3">
-        <v>1267.515929032468</v>
-      </c>
-      <c r="AE3">
-        <v>787.10236485966232</v>
-      </c>
-      <c r="AF3">
-        <v>1106.5721686571144</v>
-      </c>
-      <c r="AG3">
-        <v>1311.5007601466584</v>
-      </c>
-      <c r="AH3">
-        <v>1069.2692834284735</v>
-      </c>
-      <c r="AI3">
-        <v>1133.9687359503869</v>
-      </c>
-      <c r="AJ3">
-        <v>1626.883389688217</v>
-      </c>
-      <c r="AK3">
-        <v>1179.9377941935156</v>
-      </c>
-      <c r="AL3">
-        <v>974.68436770478218</v>
-      </c>
-      <c r="AM3">
-        <v>1377.297722886696</v>
-      </c>
-      <c r="AN3">
-        <v>641.67416989605465</v>
-      </c>
       <c r="AO3">
-        <v>1653.9833540352877</v>
+        <v>1653.9833327600761</v>
       </c>
       <c r="AP3">
-        <v>517.77112533875527</v>
+        <v>517.77112343292299</v>
       </c>
       <c r="AQ3">
-        <v>476.22032922205875</v>
+        <v>476.2203269271044</v>
       </c>
       <c r="AR3">
-        <v>689.50721370023564</v>
+        <v>689.50721109208041</v>
       </c>
       <c r="AS3">
-        <v>1130.6579010541188</v>
+        <v>1130.6578877428078</v>
       </c>
       <c r="AT3">
-        <v>398.13473951382502</v>
+        <v>398.13473788429627</v>
       </c>
       <c r="AU3">
-        <v>1443.2658104534958</v>
+        <v>1443.2657971954543</v>
       </c>
       <c r="AV3">
-        <v>892.0366397182255</v>
+        <v>892.03662647584054</v>
       </c>
       <c r="AW3">
-        <v>977.290564333936</v>
+        <v>977.29054414563234</v>
       </c>
       <c r="AX3">
-        <v>927.39974687635242</v>
+        <v>927.39974020395312</v>
       </c>
       <c r="AY3">
-        <v>634.35164670025995</v>
+        <v>634.35164239988046</v>
       </c>
     </row>
   </sheetData>
